--- a/Flooring Mastery Peer Review William.xlsx
+++ b/Flooring Mastery Peer Review William.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erene\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\repos\flooring-mastery-willt03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0458AA87-6C01-4F33-86F4-B241CD614BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8AD76-5D04-4392-950F-EA6E1735326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="0" windowWidth="15375" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,11 +634,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="83.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -647,7 +647,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25">
+    <row r="3" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -671,13 +671,13 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -685,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
@@ -704,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -802,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>7</v>
       </c>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
@@ -856,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -894,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>11</v>
       </c>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>35</v>
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>12</v>
       </c>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
@@ -952,15 +952,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
@@ -968,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
@@ -976,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
@@ -995,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>15</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>16</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>17</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>55</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>56</v>
       </c>
